--- a/Node_BBS_My_V1/documents/BBS-테이블명세.xlsx
+++ b/Node_BBS_My_V1/documents/BBS-테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS500516\Documents\workspace\Biz_NodeJS_2022_10\Node_BBS_My_V1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95903C29-B837-443F-A282-9AE7B6DF9802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875A4903-9337-4630-9F70-79CAE9FB8581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="게시판본문" sheetId="2" r:id="rId1"/>
@@ -874,6 +874,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -903,9 +906,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1251,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1910,18 +1910,18 @@
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="34" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="37"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="38"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -1933,32 +1933,32 @@
       <c r="C3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="35" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="19"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -2039,7 +2039,7 @@
       <c r="G7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="30" t="s">
         <v>54</v>
       </c>
       <c r="I7" s="12"/>
@@ -2066,7 +2066,7 @@
       <c r="G8" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="30" t="s">
         <v>55</v>
       </c>
       <c r="I8" s="12"/>
@@ -2093,7 +2093,7 @@
       <c r="G9" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="40"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
@@ -2118,7 +2118,7 @@
       <c r="G10" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="40"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
@@ -2143,7 +2143,7 @@
       <c r="G11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="40"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
@@ -2166,7 +2166,7 @@
         <v>49</v>
       </c>
       <c r="G12" s="12"/>
-      <c r="H12" s="40"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
@@ -2191,7 +2191,7 @@
       <c r="G13" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="40" t="s">
+      <c r="H13" s="30" t="s">
         <v>57</v>
       </c>
       <c r="I13" s="12"/>
@@ -2486,8 +2486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF8F6CF-DE11-47B9-8D90-AC988A848846}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3145,18 +3145,18 @@
       <c r="C2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="34" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="37"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="38"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -3168,34 +3168,34 @@
       <c r="C3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="35" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="19"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3276,7 +3276,7 @@
       <c r="G7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="40"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="12" t="s">
         <v>78</v>
       </c>
@@ -3307,7 +3307,7 @@
       <c r="G8" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="30" t="s">
         <v>54</v>
       </c>
       <c r="I8" s="12"/>
@@ -3334,7 +3334,7 @@
       <c r="G9" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="30" t="s">
         <v>55</v>
       </c>
       <c r="I9" s="12"/>
@@ -3361,7 +3361,7 @@
       <c r="G10" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="40"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
@@ -3386,7 +3386,7 @@
       <c r="G11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="40"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
@@ -3411,7 +3411,7 @@
       <c r="G12" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="40"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
@@ -3428,7 +3428,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="40"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
@@ -3701,12 +3701,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
